--- a/docs/Pecera.xlsx
+++ b/docs/Pecera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsanz/CloudStation/Dev/aquarium_care_by_arduino/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B1148D-AB37-274E-8EE9-122C018D5089}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C636B-78FF-9048-B985-13287718B798}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="24540" windowHeight="17320" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28140" windowHeight="15160" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Técnico" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Screens - 20x4" sheetId="6" r:id="rId6"/>
     <sheet name="Pines" sheetId="7" r:id="rId7"/>
     <sheet name="Pantalla Led_2" sheetId="8" r:id="rId8"/>
+    <sheet name="Leds en W" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">mosfets!$B$3:$F$3</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="370">
   <si>
     <t>€/Kwh</t>
   </si>
@@ -1102,6 +1103,60 @@
   </si>
   <si>
     <t>Redondeando bombillas</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>(W/litro)</t>
+  </si>
+  <si>
+    <t>W/acuario</t>
+  </si>
+  <si>
+    <t>Litros brutos</t>
+  </si>
+  <si>
+    <t>W/led</t>
+  </si>
+  <si>
+    <t>W/metro tira</t>
+  </si>
+  <si>
+    <t>metros led</t>
+  </si>
+  <si>
+    <t>A/metro</t>
+  </si>
+  <si>
+    <t>Amperios</t>
+  </si>
+  <si>
+    <t>leds/tira</t>
+  </si>
+  <si>
+    <t>W total</t>
+  </si>
+  <si>
+    <t>Luz actual en acuario</t>
+  </si>
+  <si>
+    <t>acuariofiliamadrid - W leds</t>
+  </si>
+  <si>
+    <t>leds</t>
+  </si>
+  <si>
+    <t>Calculo en tiras</t>
+  </si>
+  <si>
+    <t>Cálculo en powe leds</t>
   </si>
 </sst>
 </file>
@@ -1120,9 +1175,9 @@
     <numFmt numFmtId="172" formatCode="h:mm"/>
     <numFmt numFmtId="173" formatCode="0\ %"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="184" formatCode="* #,##0.0&quot;    &quot;;\-* #,##0.0&quot;    &quot;;* \-#.0&quot;    &quot;;@\ "/>
+    <numFmt numFmtId="175" formatCode="* #,##0.0&quot;    &quot;;\-* #,##0.0&quot;    &quot;;* \-#.0&quot;    &quot;;@\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1168,8 +1223,49 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF303030"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1222,6 +1318,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF491D74"/>
         <bgColor rgb="FF660066"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1690,7 +1792,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1903,6 +2005,7 @@
     <xf numFmtId="172" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1921,14 +2024,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1936,7 +2039,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2410,14 +2527,14 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
     <col min="10" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2542,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2453,24 +2570,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="157" t="s">
+    <row r="3" spans="2:15">
+      <c r="B3" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157"/>
-      <c r="N3" s="157"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+    </row>
+    <row r="4" spans="2:15">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" hidden="1">
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
@@ -2553,7 +2670,7 @@
         <v>1.27159344</v>
       </c>
     </row>
-    <row r="6" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" hidden="1">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2595,7 +2712,7 @@
         <v>0.48907440000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" hidden="1">
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
@@ -2640,7 +2757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" hidden="1">
       <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2682,7 +2799,7 @@
         <v>0.39125951999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" hidden="1">
       <c r="B9" s="13" t="s">
         <v>20</v>
       </c>
@@ -2726,7 +2843,7 @@
         <v>0.78251903999999994</v>
       </c>
     </row>
-    <row r="10" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" hidden="1">
       <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
@@ -2770,7 +2887,7 @@
         <v>0.97814880000000004</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
@@ -2815,7 +2932,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -2860,7 +2977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15">
       <c r="B13" s="6" t="s">
         <v>39</v>
       </c>
@@ -2901,7 +3018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" hidden="1">
       <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
@@ -2943,7 +3060,7 @@
         <v>0.48907440000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:15" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" s="20" customFormat="1">
       <c r="B15" s="21" t="s">
         <v>39</v>
       </c>
@@ -2989,7 +3106,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" hidden="1">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -3031,7 +3148,7 @@
         <v>1.5650380799999999</v>
       </c>
     </row>
-    <row r="17" spans="2:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" hidden="1">
       <c r="B17" s="28" t="s">
         <v>20</v>
       </c>
@@ -3075,7 +3192,7 @@
         <v>1.4672232000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -3090,45 +3207,45 @@
       <c r="M18" s="10"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="156" t="s">
+    <row r="20" spans="2:14">
+      <c r="B20" s="157" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="156"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="158" t="s">
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159" t="s">
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="160" t="s">
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+    </row>
+    <row r="22" spans="2:14">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>65</v>
@@ -3163,7 +3280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="6" t="s">
         <v>69</v>
       </c>
@@ -3204,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
@@ -3245,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
@@ -3286,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
@@ -3327,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="6" t="s">
         <v>75</v>
       </c>
@@ -3368,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -3401,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -3426,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -3451,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3476,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3501,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="38"/>
       <c r="C33" s="39">
         <f>SUM(Técnico!C23:C27)</f>
@@ -3537,7 +3654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="7"/>
       <c r="C34" s="22"/>
       <c r="D34" s="7"/>
@@ -3551,45 +3668,45 @@
       <c r="L34" s="7"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="156" t="s">
+    <row r="35" spans="2:15">
+      <c r="B35" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="156"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="156" t="s">
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
+      <c r="N35" s="157"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156" t="s">
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156" t="s">
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="156"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+    </row>
+    <row r="37" spans="2:15">
       <c r="B37" s="42"/>
       <c r="C37" s="42" t="s">
         <v>82</v>
@@ -3618,7 +3735,7 @@
       </c>
       <c r="N37" s="42"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" t="s">
         <v>85</v>
       </c>
@@ -3641,7 +3758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" t="s">
         <v>86</v>
       </c>
@@ -3661,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" t="s">
         <v>87</v>
       </c>
@@ -3681,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" t="s">
         <v>89</v>
       </c>
@@ -3704,7 +3821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" t="s">
         <v>91</v>
       </c>
@@ -3727,7 +3844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" t="s">
         <v>93</v>
       </c>
@@ -3750,7 +3867,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" t="s">
         <v>96</v>
       </c>
@@ -3779,7 +3896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" t="s">
         <v>101</v>
       </c>
@@ -3805,7 +3922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" t="s">
         <v>105</v>
       </c>
@@ -3831,7 +3948,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="F47" t="s">
         <v>105</v>
       </c>
@@ -3851,7 +3968,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="J48" t="s">
         <v>108</v>
       </c>
@@ -3859,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14">
       <c r="C49">
         <f>SUM(Técnico!C38:C46)</f>
         <v>10</v>
@@ -3878,7 +3995,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14">
       <c r="J50" t="s">
         <v>105</v>
       </c>
@@ -3886,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:14">
       <c r="J51" t="s">
         <v>101</v>
       </c>
@@ -3900,7 +4017,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:14">
       <c r="J52" t="s">
         <v>112</v>
       </c>
@@ -3908,13 +4025,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:14">
       <c r="K54">
         <f>SUM(Técnico!K38:K52)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:14">
       <c r="J56">
         <v>4</v>
       </c>
@@ -3922,7 +4039,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:14">
       <c r="J57">
         <v>6</v>
       </c>
@@ -3965,7 +4082,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
@@ -3979,7 +4096,7 @@
     <col min="11" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="C1" s="43" t="s">
         <v>116</v>
       </c>
@@ -3990,7 +4107,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>119</v>
       </c>
@@ -4013,7 +4130,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>123</v>
       </c>
@@ -4039,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>124</v>
       </c>
@@ -4052,22 +4169,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="C8" s="45" t="s">
         <v>125</v>
       </c>
       <c r="D8" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="161"/>
+      <c r="G8" s="162"/>
       <c r="H8" s="43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>129</v>
       </c>
@@ -4075,15 +4192,15 @@
         <f>3000/5</f>
         <v>600</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="G9" s="161"/>
+      <c r="G9" s="162"/>
       <c r="H9" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>132</v>
       </c>
@@ -4094,10 +4211,10 @@
       <c r="D10" s="43">
         <v>15</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="161"/>
+      <c r="G10" s="162"/>
       <c r="H10" s="44" t="s">
         <v>134</v>
       </c>
@@ -4109,7 +4226,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>136</v>
       </c>
@@ -4120,7 +4237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>137</v>
       </c>
@@ -4142,7 +4259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>140</v>
       </c>
@@ -4154,7 +4271,7 @@
       </c>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>141</v>
       </c>
@@ -4168,14 +4285,14 @@
       </c>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="C15" s="47"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="H17" s="43" t="s">
         <v>142</v>
       </c>
@@ -4183,7 +4300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="B18" t="s">
         <v>143</v>
       </c>
@@ -4201,7 +4318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="43">
         <v>7</v>
       </c>
@@ -4222,7 +4339,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>147</v>
       </c>
@@ -4238,7 +4355,7 @@
       </c>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="G21" t="s">
         <v>149</v>
       </c>
@@ -4249,7 +4366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" t="s">
         <v>150</v>
       </c>
@@ -4268,7 +4385,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" t="s">
         <v>152</v>
       </c>
@@ -4279,7 +4396,7 @@
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>153</v>
       </c>
@@ -4300,7 +4417,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" s="20" t="s">
         <v>137</v>
       </c>
@@ -4324,15 +4441,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>156</v>
       </c>
@@ -4341,7 +4458,7 @@
         <v>274.19499999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" s="20" t="s">
         <v>157</v>
       </c>
@@ -4353,7 +4470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>158</v>
       </c>
@@ -4366,19 +4483,19 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="156" t="s">
+    <row r="32" spans="1:12">
+      <c r="C32" s="157" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="157"/>
+      <c r="E32" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156" t="s">
+      <c r="F32" s="157"/>
+      <c r="G32" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="156"/>
+      <c r="H32" s="157"/>
       <c r="I32" s="42" t="s">
         <v>162</v>
       </c>
@@ -4392,7 +4509,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12">
       <c r="B33" s="51" t="s">
         <v>142</v>
       </c>
@@ -4430,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12">
       <c r="B34" s="57" t="s">
         <v>166</v>
       </c>
@@ -4469,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12">
       <c r="B35" s="58" t="s">
         <v>167</v>
       </c>
@@ -4508,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12">
       <c r="B36" s="59" t="s">
         <v>168</v>
       </c>
@@ -4547,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12">
       <c r="C37" s="63"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
@@ -4581,12 +4698,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="64" t="s">
         <v>169</v>
       </c>
@@ -4603,7 +4720,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>173</v>
       </c>
@@ -4617,7 +4734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -4631,7 +4748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>176</v>
       </c>
@@ -4645,7 +4762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>178</v>
       </c>
@@ -4662,7 +4779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>179</v>
       </c>
@@ -4676,7 +4793,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>180</v>
       </c>
@@ -4690,7 +4807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" t="s">
         <v>181</v>
       </c>
@@ -4704,7 +4821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" t="s">
         <v>182</v>
       </c>
@@ -4718,7 +4835,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6">
       <c r="B12" t="s">
         <v>183</v>
       </c>
@@ -4732,7 +4849,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6">
       <c r="B13" t="s">
         <v>184</v>
       </c>
@@ -4746,7 +4863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6">
       <c r="B14" t="s">
         <v>185</v>
       </c>
@@ -4760,7 +4877,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6">
       <c r="B15" t="s">
         <v>186</v>
       </c>
@@ -4774,7 +4891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6">
       <c r="B16" t="s">
         <v>187</v>
       </c>
@@ -4788,7 +4905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>188</v>
       </c>
@@ -4802,7 +4919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>189</v>
       </c>
@@ -4816,7 +4933,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>190</v>
       </c>
@@ -4830,7 +4947,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>191</v>
       </c>
@@ -4859,7 +4976,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -4871,38 +4988,38 @@
     <col min="16" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B2" s="163" t="s">
+    <row r="2" spans="2:23">
+      <c r="B2" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="160" t="s">
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="L2" s="163" t="s">
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="L2" s="165" t="s">
         <v>192</v>
       </c>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="160" t="s">
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="2" t="s">
         <v>194</v>
       </c>
@@ -4963,7 +5080,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23">
       <c r="B4" s="6" t="s">
         <v>120</v>
       </c>
@@ -5033,7 +5150,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23">
       <c r="B5" s="6" t="s">
         <v>121</v>
       </c>
@@ -5101,7 +5218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23">
       <c r="B6" s="6" t="s">
         <v>122</v>
       </c>
@@ -5168,7 +5285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23">
       <c r="B7" s="68" t="s">
         <v>135</v>
       </c>
@@ -5238,7 +5355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23">
       <c r="B8" s="6"/>
       <c r="C8" s="10"/>
       <c r="D8" s="65"/>
@@ -5284,7 +5401,7 @@
       <c r="V8" s="66"/>
       <c r="W8" s="72"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23">
       <c r="B9" s="73" t="s">
         <v>217</v>
       </c>
@@ -5348,7 +5465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23">
       <c r="B10" s="21"/>
       <c r="C10" s="26"/>
       <c r="D10" s="65"/>
@@ -5402,7 +5519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23">
       <c r="B11" s="21"/>
       <c r="C11" s="26"/>
       <c r="D11" s="65"/>
@@ -5442,7 +5559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23">
       <c r="B12" s="21"/>
       <c r="C12" s="26"/>
       <c r="D12" s="65"/>
@@ -5482,7 +5599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23">
       <c r="B13" s="21"/>
       <c r="C13" s="26"/>
       <c r="D13" s="65"/>
@@ -5522,7 +5639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="36"/>
@@ -5557,7 +5674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23">
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="77"/>
@@ -5602,7 +5719,7 @@
       <c r="V15" s="79"/>
       <c r="W15" s="80"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23">
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -5622,11 +5739,11 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B17" s="164" t="s">
+    <row r="17" spans="2:23">
+      <c r="B17" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="164"/>
+      <c r="C17" s="163"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
@@ -5634,10 +5751,10 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
-      <c r="L17" s="164" t="s">
+      <c r="L17" s="163" t="s">
         <v>225</v>
       </c>
-      <c r="M17" s="164"/>
+      <c r="M17" s="163"/>
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
@@ -5649,33 +5766,33 @@
       <c r="V17" s="42"/>
       <c r="W17" s="42"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="162" t="s">
+    <row r="18" spans="2:23">
+      <c r="B18" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="C18" s="162"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="162" t="s">
+      <c r="C18" s="164"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="C19" s="162"/>
+      <c r="C19" s="164"/>
       <c r="O19" s="82" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23">
       <c r="B20" t="s">
         <v>229</v>
       </c>
       <c r="C20" s="81"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23">
       <c r="B21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23">
       <c r="B22" t="s">
         <v>231</v>
       </c>
@@ -5712,7 +5829,7 @@
       <selection activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="83" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" style="83" customWidth="1"/>
@@ -5745,7 +5862,7 @@
     <col min="54" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53">
       <c r="E1" s="83" t="s">
         <v>149</v>
       </c>
@@ -5771,7 +5888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53">
       <c r="B2" s="83">
         <v>1</v>
       </c>
@@ -5893,7 +6010,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53">
       <c r="A3" s="88"/>
       <c r="B3" s="89" t="s">
         <v>239</v>
@@ -5996,7 +6113,7 @@
       <c r="AS3" s="93"/>
       <c r="AU3" s="92"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53">
       <c r="A4" s="88"/>
       <c r="B4" s="94">
         <v>2</v>
@@ -6108,7 +6225,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53">
       <c r="A5" s="88"/>
       <c r="R5" s="88"/>
       <c r="S5" s="88"/>
@@ -6122,7 +6239,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53">
       <c r="A6" s="88"/>
       <c r="B6" s="98" t="s">
         <v>232</v>
@@ -6239,7 +6356,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53">
       <c r="A7" s="88"/>
       <c r="B7" s="94" t="s">
         <v>261</v>
@@ -6346,7 +6463,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53">
       <c r="A8" s="88"/>
       <c r="R8" s="88"/>
       <c r="S8" s="88"/>
@@ -6357,7 +6474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53">
       <c r="A9" s="88"/>
       <c r="B9" s="98" t="s">
         <v>151</v>
@@ -6464,7 +6581,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53">
       <c r="A10" s="88"/>
       <c r="B10" s="94" t="s">
         <v>256</v>
@@ -6564,12 +6681,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53">
       <c r="A11" s="88"/>
       <c r="R11" s="88"/>
       <c r="S11" s="88"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53">
       <c r="B12" s="98" t="s">
         <v>232</v>
       </c>
@@ -6663,7 +6780,7 @@
       </c>
       <c r="AI12" s="91"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53">
       <c r="A13" s="88"/>
       <c r="B13" s="94" t="s">
         <v>271</v>
@@ -6763,12 +6880,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53">
       <c r="A14" s="88"/>
       <c r="R14" s="88"/>
       <c r="S14" s="88"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53">
       <c r="A15" s="88"/>
       <c r="B15" s="98" t="s">
         <v>151</v>
@@ -6908,7 +7025,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53">
       <c r="A16" s="88"/>
       <c r="B16" s="94" t="s">
         <v>277</v>
@@ -7008,12 +7125,12 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43">
       <c r="AK17" s="84" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43">
       <c r="A18" s="88"/>
       <c r="B18" s="98" t="s">
         <v>151</v>
@@ -7113,7 +7230,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43">
       <c r="A19" s="88"/>
       <c r="B19" s="94" t="s">
         <v>237</v>
@@ -7216,12 +7333,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43">
       <c r="A20" s="88"/>
       <c r="R20" s="88"/>
       <c r="S20" s="88"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43">
       <c r="A21" s="88"/>
       <c r="B21" s="98" t="s">
         <v>277</v>
@@ -7318,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43">
       <c r="A22" s="88"/>
       <c r="B22" s="94" t="s">
         <v>283</v>
@@ -7407,12 +7524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43">
       <c r="A23" s="88"/>
       <c r="R23" s="88"/>
       <c r="S23" s="88"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43">
       <c r="A24" s="88"/>
       <c r="B24" s="98" t="s">
         <v>283</v>
@@ -7505,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43">
       <c r="A25" s="88"/>
       <c r="B25" s="94" t="s">
         <v>151</v>
@@ -7606,12 +7723,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43">
       <c r="A26" s="88"/>
       <c r="R26" s="88"/>
       <c r="S26" s="88"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43">
       <c r="A27" s="88"/>
       <c r="B27" s="98" t="s">
         <v>151</v>
@@ -7678,7 +7795,7 @@
       <c r="AJ27" s="88"/>
       <c r="AK27" s="103"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43">
       <c r="A28" s="88"/>
       <c r="B28" s="94" t="s">
         <v>271</v>
@@ -7749,7 +7866,7 @@
       <c r="AJ28" s="88"/>
       <c r="AK28" s="103"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43">
       <c r="A29" s="88"/>
       <c r="R29" s="88"/>
       <c r="S29" s="88"/>
@@ -7772,7 +7889,7 @@
       <c r="AJ29" s="88"/>
       <c r="AK29" s="103"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43">
       <c r="A30" s="88"/>
       <c r="B30" s="98" t="s">
         <v>283</v>
@@ -7841,7 +7958,7 @@
       <c r="AJ30" s="88"/>
       <c r="AK30" s="103"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43">
       <c r="A31" s="88"/>
       <c r="B31" s="104">
         <v>0</v>
@@ -7912,7 +8029,7 @@
       <c r="AJ31" s="88"/>
       <c r="AK31" s="103"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43">
       <c r="A32" s="88"/>
       <c r="R32" s="88"/>
       <c r="S32" s="88"/>
@@ -7935,7 +8052,7 @@
       <c r="AJ32" s="88"/>
       <c r="AK32" s="103"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37">
       <c r="A33" s="88"/>
       <c r="B33" s="98"/>
       <c r="C33" s="99"/>
@@ -7994,7 +8111,7 @@
       <c r="AJ33" s="88"/>
       <c r="AK33" s="103"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37">
       <c r="A34" s="88"/>
       <c r="B34" s="104">
         <v>4</v>
@@ -8059,7 +8176,7 @@
       <selection activeCell="AQ25" sqref="AQ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="8.83203125" customWidth="1"/>
     <col min="3" max="22" width="2.33203125" customWidth="1"/>
@@ -8068,7 +8185,7 @@
     <col min="44" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:45">
       <c r="C2">
         <v>0</v>
       </c>
@@ -8190,7 +8307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45">
       <c r="B3">
         <v>0</v>
       </c>
@@ -8298,7 +8415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45">
       <c r="B4">
         <v>1</v>
       </c>
@@ -8422,7 +8539,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45">
       <c r="B5">
         <v>2</v>
       </c>
@@ -8546,7 +8663,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8674,7 +8791,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:45">
       <c r="C8">
         <v>0</v>
       </c>
@@ -8796,7 +8913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:45">
       <c r="B9">
         <v>0</v>
       </c>
@@ -8910,7 +9027,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -9024,7 +9141,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -9148,7 +9265,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -9256,7 +9373,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:45">
       <c r="C14">
         <v>0</v>
       </c>
@@ -9378,7 +9495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:45">
       <c r="B15">
         <v>0</v>
       </c>
@@ -9488,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:45">
       <c r="B16">
         <v>1</v>
       </c>
@@ -9610,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43">
       <c r="B17">
         <v>2</v>
       </c>
@@ -9716,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43">
       <c r="B18">
         <v>3</v>
       </c>
@@ -9812,7 +9929,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43">
       <c r="C20">
         <v>0</v>
       </c>
@@ -9934,7 +10051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43">
       <c r="B21">
         <v>0</v>
       </c>
@@ -10058,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43">
       <c r="B22">
         <v>1</v>
       </c>
@@ -10179,7 +10296,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:43">
       <c r="B23">
         <v>2</v>
       </c>
@@ -10282,7 +10399,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:43">
       <c r="B24">
         <v>3</v>
       </c>
@@ -10404,7 +10521,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:43">
       <c r="C26">
         <v>0</v>
       </c>
@@ -10526,7 +10643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:43">
       <c r="B27">
         <v>0</v>
       </c>
@@ -10574,7 +10691,7 @@
       <c r="AP27" s="107"/>
       <c r="AQ27" s="108"/>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:43">
       <c r="B28">
         <v>1</v>
       </c>
@@ -10658,7 +10775,7 @@
       <c r="AP28" s="37"/>
       <c r="AQ28" s="36"/>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:43">
       <c r="B29">
         <v>2</v>
       </c>
@@ -10704,7 +10821,7 @@
       <c r="AP29" s="37"/>
       <c r="AQ29" s="36"/>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:43">
       <c r="B30">
         <v>3</v>
       </c>
@@ -10752,7 +10869,7 @@
       <c r="AP30" s="109"/>
       <c r="AQ30" s="77"/>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:43">
       <c r="C32">
         <v>0</v>
       </c>
@@ -10874,7 +10991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:43">
       <c r="B33">
         <v>0</v>
       </c>
@@ -10922,7 +11039,7 @@
       <c r="AP33" s="107"/>
       <c r="AQ33" s="108"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:43">
       <c r="B34">
         <v>1</v>
       </c>
@@ -10970,7 +11087,7 @@
       <c r="AP34" s="37"/>
       <c r="AQ34" s="36"/>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:43">
       <c r="B35">
         <v>2</v>
       </c>
@@ -11018,7 +11135,7 @@
       <c r="AP35" s="37"/>
       <c r="AQ35" s="36"/>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:43">
       <c r="B36">
         <v>3</v>
       </c>
@@ -11066,7 +11183,7 @@
       <c r="AP36" s="109"/>
       <c r="AQ36" s="77"/>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:43">
       <c r="C38">
         <v>0</v>
       </c>
@@ -11188,7 +11305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:43">
       <c r="B39">
         <v>0</v>
       </c>
@@ -11236,7 +11353,7 @@
       <c r="AP39" s="107"/>
       <c r="AQ39" s="108"/>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:43">
       <c r="B40">
         <v>1</v>
       </c>
@@ -11284,7 +11401,7 @@
       <c r="AP40" s="37"/>
       <c r="AQ40" s="36"/>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:43">
       <c r="B41">
         <v>2</v>
       </c>
@@ -11332,7 +11449,7 @@
       <c r="AP41" s="37"/>
       <c r="AQ41" s="36"/>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:43">
       <c r="B42">
         <v>3</v>
       </c>
@@ -11394,7 +11511,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" style="110" customWidth="1"/>
@@ -11402,7 +11519,7 @@
     <col min="10" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="111" t="s">
         <v>295</v>
       </c>
@@ -11422,7 +11539,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3" s="110" t="s">
         <v>301</v>
       </c>
@@ -11439,7 +11556,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" s="110" t="s">
         <v>304</v>
       </c>
@@ -11462,7 +11579,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9">
       <c r="B5" s="110" t="s">
         <v>307</v>
       </c>
@@ -11482,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9">
       <c r="B6" s="110" t="s">
         <v>309</v>
       </c>
@@ -11505,7 +11622,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9">
       <c r="B7" s="110" t="s">
         <v>312</v>
       </c>
@@ -11516,7 +11633,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
       <c r="B8" s="113" t="s">
         <v>200</v>
       </c>
@@ -11537,7 +11654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="111" t="s">
         <v>314</v>
       </c>
@@ -11554,7 +11671,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="110" t="s">
         <v>317</v>
       </c>
@@ -11572,7 +11689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="110" t="s">
         <v>318</v>
       </c>
@@ -11590,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="110" t="s">
         <v>319</v>
       </c>
@@ -11608,7 +11725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="110" t="s">
         <v>320</v>
       </c>
@@ -11626,7 +11743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="110" t="s">
         <v>321</v>
       </c>
@@ -11644,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="110" t="s">
         <v>322</v>
       </c>
@@ -11662,7 +11779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="110" t="s">
         <v>323</v>
       </c>
@@ -11680,7 +11797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="113" t="s">
         <v>200</v>
       </c>
@@ -11695,7 +11812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" s="111" t="s">
         <v>324</v>
       </c>
@@ -11715,7 +11832,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="110" t="s">
         <v>326</v>
       </c>
@@ -11736,7 +11853,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="110" t="s">
         <v>328</v>
       </c>
@@ -11757,7 +11874,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="110" t="s">
         <v>329</v>
       </c>
@@ -11775,7 +11892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="110" t="s">
         <v>331</v>
       </c>
@@ -11793,7 +11910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25" s="110" t="s">
         <v>332</v>
       </c>
@@ -11811,7 +11928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" s="110" t="s">
         <v>333</v>
       </c>
@@ -11829,7 +11946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27" s="113" t="s">
         <v>200</v>
       </c>
@@ -11844,7 +11961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30" s="116" t="s">
         <v>200</v>
       </c>
@@ -11856,7 +11973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31" s="110" t="s">
         <v>298</v>
       </c>
@@ -11865,7 +11982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32" s="113" t="s">
         <v>224</v>
       </c>
@@ -11877,7 +11994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="110" t="s">
         <v>334</v>
       </c>
@@ -11886,7 +12003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="110" t="s">
         <v>313</v>
       </c>
@@ -11895,7 +12012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="110" t="s">
         <v>335</v>
       </c>
@@ -11904,7 +12021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="110" t="s">
         <v>336</v>
       </c>
@@ -11913,7 +12030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="110" t="s">
         <v>337</v>
       </c>
@@ -11922,7 +12039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" s="117" t="s">
         <v>200</v>
       </c>
@@ -11944,11 +12061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
@@ -11964,7 +12081,7 @@
     <col min="13" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8">
       <c r="B1" s="120"/>
       <c r="C1" s="121" t="s">
         <v>116</v>
@@ -11976,7 +12093,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8">
       <c r="B2" s="123" t="s">
         <v>119</v>
       </c>
@@ -11989,12 +12106,12 @@
       <c r="E2" s="124">
         <v>45</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="166" t="s">
         <v>338</v>
       </c>
-      <c r="H2" s="165"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="166"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="123" t="s">
         <v>123</v>
       </c>
@@ -12014,7 +12131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4" s="127" t="s">
         <v>124</v>
       </c>
@@ -12034,7 +12151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="G5" s="130" t="s">
         <v>340</v>
       </c>
@@ -12043,7 +12160,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="G6" s="130" t="s">
         <v>341</v>
       </c>
@@ -12052,11 +12169,11 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="G7" s="130"/>
       <c r="H7" s="131"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8" s="120"/>
       <c r="C8" s="132" t="s">
         <v>125</v>
@@ -12076,7 +12193,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9" s="123" t="s">
         <v>129</v>
       </c>
@@ -12094,7 +12211,7 @@
         <v>24.816176470588236</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10" s="123" t="s">
         <v>132</v>
       </c>
@@ -12109,7 +12226,7 @@
       <c r="G10" s="46"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11" s="123" t="s">
         <v>136</v>
       </c>
@@ -12120,7 +12237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12" s="123" t="s">
         <v>137</v>
       </c>
@@ -12134,7 +12251,7 @@
       </c>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13" s="123" t="s">
         <v>140</v>
       </c>
@@ -12146,7 +12263,7 @@
       </c>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14" s="127" t="s">
         <v>141</v>
       </c>
@@ -12160,19 +12277,19 @@
       </c>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="C15" s="47"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="166" t="s">
+    <row r="17" spans="1:12">
+      <c r="B17" s="167" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
       <c r="G17" s="138"/>
       <c r="H17" s="139" t="s">
         <v>142</v>
@@ -12183,11 +12300,11 @@
       <c r="K17" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="167">
+      <c r="L17" s="156">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="B18" s="123" t="s">
         <v>143</v>
       </c>
@@ -12208,11 +12325,11 @@
       <c r="K18" t="s">
         <v>344</v>
       </c>
-      <c r="L18" s="167">
+      <c r="L18" s="156">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="43">
         <v>11</v>
       </c>
@@ -12233,9 +12350,9 @@
       <c r="I19" s="124">
         <v>14.4</v>
       </c>
-      <c r="L19" s="167"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="156"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="B20" s="123" t="s">
         <v>147</v>
       </c>
@@ -12254,12 +12371,12 @@
       <c r="K20" t="s">
         <v>347</v>
       </c>
-      <c r="L20" s="167">
+      <c r="L20" s="156">
         <f>L18*L17</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" s="123"/>
       <c r="D21" s="124"/>
       <c r="G21" s="123" t="s">
@@ -12274,11 +12391,11 @@
       <c r="K21" t="s">
         <v>348</v>
       </c>
-      <c r="L21" s="167">
+      <c r="L21" s="156">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" s="123" t="s">
         <v>150</v>
       </c>
@@ -12297,9 +12414,9 @@
         <f>I19/I21</f>
         <v>1.2</v>
       </c>
-      <c r="L22" s="167"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="156"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="B23" s="123" t="s">
         <v>152</v>
       </c>
@@ -12314,12 +12431,12 @@
       <c r="K23" t="s">
         <v>349</v>
       </c>
-      <c r="L23" s="167">
+      <c r="L23" s="156">
         <f>L20/L21</f>
         <v>5.1428571428571432</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" s="123" t="s">
         <v>153</v>
       </c>
@@ -12343,12 +12460,12 @@
       <c r="K24" t="s">
         <v>351</v>
       </c>
-      <c r="L24" s="167">
+      <c r="L24" s="156">
         <f>ROUND(L23,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" s="130" t="s">
         <v>137</v>
       </c>
@@ -12374,12 +12491,12 @@
       <c r="K25" t="s">
         <v>347</v>
       </c>
-      <c r="L25" s="167">
+      <c r="L25" s="156">
         <f>L24*L21</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" s="123"/>
       <c r="D26" s="124"/>
       <c r="H26" s="48"/>
@@ -12387,18 +12504,18 @@
       <c r="K26" t="s">
         <v>350</v>
       </c>
-      <c r="L26" s="167">
+      <c r="L26" s="156">
         <f>L25/L17</f>
         <v>29.166666666666668</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" s="123"/>
       <c r="D27" s="124"/>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" s="123" t="s">
         <v>156</v>
       </c>
@@ -12408,7 +12525,7 @@
       </c>
       <c r="D28" s="124"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" s="130" t="s">
         <v>157</v>
       </c>
@@ -12420,7 +12537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" s="127" t="s">
         <v>158</v>
       </c>
@@ -12433,19 +12550,19 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C32" s="156" t="s">
+    <row r="32" spans="1:12">
+      <c r="C32" s="157" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156" t="s">
+      <c r="D32" s="157"/>
+      <c r="E32" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156" t="s">
+      <c r="F32" s="157"/>
+      <c r="G32" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="H32" s="156"/>
+      <c r="H32" s="157"/>
       <c r="I32" s="42" t="s">
         <v>162</v>
       </c>
@@ -12459,7 +12576,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12">
       <c r="B33" s="51" t="s">
         <v>142</v>
       </c>
@@ -12497,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12">
       <c r="B34" s="57" t="s">
         <v>166</v>
       </c>
@@ -12536,7 +12653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12">
       <c r="B35" s="58" t="s">
         <v>167</v>
       </c>
@@ -12575,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12">
       <c r="B36" s="59" t="s">
         <v>168</v>
       </c>
@@ -12614,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12">
       <c r="B37" s="150" t="s">
         <v>346</v>
       </c>
@@ -12664,4 +12781,327 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6FA2A1-61BE-FA42-8AC8-F4B68778EF0F}">
+  <dimension ref="B1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="174" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="174"/>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" s="169"/>
+      <c r="C2" s="170" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="170"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="170" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="171">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="171"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="170" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="171">
+        <v>0.33</v>
+      </c>
+      <c r="D4" s="171"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="170" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="171">
+        <v>0.17</v>
+      </c>
+      <c r="D5" s="171"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="173" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="173"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="175" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="G8" s="176" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" t="s">
+        <v>352</v>
+      </c>
+      <c r="H9" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" t="s">
+        <v>353</v>
+      </c>
+      <c r="J9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10">
+        <f>D10</f>
+        <v>144</v>
+      </c>
+      <c r="D10">
+        <f>80*40*45/1000</f>
+        <v>144</v>
+      </c>
+      <c r="E10">
+        <f>D10</f>
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10">
+        <f>I10</f>
+        <v>144</v>
+      </c>
+      <c r="I10">
+        <f>80*40*45/1000</f>
+        <v>144</v>
+      </c>
+      <c r="J10">
+        <f>I10</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="178">
+        <f>C10*$C$5</f>
+        <v>24.48</v>
+      </c>
+      <c r="D11" s="178">
+        <f>D10*$C$4</f>
+        <v>47.52</v>
+      </c>
+      <c r="E11" s="178">
+        <f>E10*$C$3</f>
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11">
+        <f>H10*$C$5</f>
+        <v>24.48</v>
+      </c>
+      <c r="I11">
+        <f>I10*$C$4</f>
+        <v>47.52</v>
+      </c>
+      <c r="J11">
+        <f>J10*$C$3</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13">
+        <f>D13</f>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <f>D13</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14">
+        <f>C11/C13</f>
+        <v>4.08</v>
+      </c>
+      <c r="D14">
+        <f>D11/D13</f>
+        <v>7.9200000000000008</v>
+      </c>
+      <c r="E14">
+        <f>E11/E13</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15">
+        <f>C14*'Pantalla Led_2'!H18</f>
+        <v>244.8</v>
+      </c>
+      <c r="D15">
+        <f>D14*'Pantalla Led_2'!H18</f>
+        <v>475.20000000000005</v>
+      </c>
+      <c r="E15">
+        <f>E14*'Pantalla Led_2'!H18</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16">
+        <f>D16</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <f>D16</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C17">
+        <f>C16*C14</f>
+        <v>2.04</v>
+      </c>
+      <c r="D17">
+        <f>D16*D14</f>
+        <v>3.9600000000000004</v>
+      </c>
+      <c r="E17">
+        <f>E16*E14</f>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f>100*50</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="168" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="168"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27">
+        <f>C26*C25</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28">
+        <f>'Pantalla Led_2'!H19/'Pantalla Led_2'!H18</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30">
+        <f>C28*C27</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A924A3F3-BC8B-8341-89CD-2469C87057F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>